--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,75 +43,78 @@
     <t>war</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>lower</t>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>stop</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -124,58 +127,76 @@
     <t>free</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>help</t>
@@ -187,22 +208,22 @@
     <t>safety</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>important</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
 </sst>
 </file>
@@ -560,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,10 +589,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -650,7 +671,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -679,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9117647058823529</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,7 +721,7 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <v>0.9666666666666667</v>
@@ -729,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8918918918918919</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,19 +768,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -800,7 +821,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K6">
         <v>0.9302325581395349</v>
@@ -829,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8664383561643836</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C7">
-        <v>253</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>253</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="K7">
-        <v>0.9295039164490861</v>
+        <v>0.9216710182767625</v>
       </c>
       <c r="L7">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M7">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +900,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8620689655172413</v>
+        <v>0.8664383561643836</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>253</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>253</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -929,13 +950,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8461538461538461</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>0.9084507042253521</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L9">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="M9">
-        <v>129</v>
+        <v>54</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8333333333333334</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>0.9056603773584906</v>
+        <v>0.9084507042253521</v>
       </c>
       <c r="L10">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="M10">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1050,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7647058823529411</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="C11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.8936170212765957</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1100,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7422480620155039</v>
+        <v>0.775</v>
       </c>
       <c r="C12">
-        <v>383</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>383</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>133</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>0.8928571428571429</v>
+        <v>0.8984375</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1150,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7354497354497355</v>
+        <v>0.7616279069767442</v>
       </c>
       <c r="C13">
-        <v>139</v>
+        <v>393</v>
       </c>
       <c r="D13">
-        <v>139</v>
+        <v>393</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.890625</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L13">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="M13">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,13 +1200,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7288135593220338</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="C14">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="D14">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>0.88125</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L14">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,13 +1250,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.725</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1247,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>0.8611111111111112</v>
+        <v>0.8875</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="M15">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1271,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,13 +1300,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6944444444444444</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1297,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16">
-        <v>0.8611111111111112</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1321,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,7 +1350,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6756756756756757</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C17">
         <v>25</v>
@@ -1347,19 +1368,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.8536585365853658</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L17">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1371,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,13 +1400,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6644295302013423</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C18">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="D18">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1397,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>13</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="K18">
-        <v>0.8448275862068966</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L18">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="M18">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1421,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1429,13 +1450,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6410256410256411</v>
+        <v>0.6644295302013423</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1447,10 +1468,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K19">
         <v>0.8253968253968254</v>
@@ -1479,13 +1500,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6181818181818182</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C20">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1497,19 +1518,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>0.7916666666666666</v>
+        <v>0.825</v>
       </c>
       <c r="L20">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1521,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1529,13 +1550,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5466666666666666</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="C21">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D21">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1547,19 +1568,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K21">
-        <v>0.78</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L21">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1571,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1579,13 +1600,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5272727272727272</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1597,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>0.7647058823529411</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L22">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="M22">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1621,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1629,13 +1650,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5178571428571429</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C23">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1647,19 +1668,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>0.7491525423728813</v>
+        <v>0.7764705882352941</v>
       </c>
       <c r="L23">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="M23">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1671,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1679,13 +1700,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4333333333333333</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="C24">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D24">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1697,19 +1718,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K24">
-        <v>0.7489539748953975</v>
+        <v>0.7752808988764045</v>
       </c>
       <c r="L24">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="M24">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1721,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1729,13 +1750,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3452380952380952</v>
+        <v>0.375</v>
       </c>
       <c r="C25">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="D25">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1747,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K25">
-        <v>0.7450980392156863</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1771,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1779,13 +1800,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3375</v>
+        <v>0.3690476190476191</v>
       </c>
       <c r="C26">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="D26">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1797,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K26">
-        <v>0.7384615384615385</v>
+        <v>0.76</v>
       </c>
       <c r="L26">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1821,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1829,13 +1850,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1635388739946381</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="C27">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D27">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1847,19 +1868,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>312</v>
+        <v>57</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27">
-        <v>0.723404255319149</v>
+        <v>0.7553191489361702</v>
       </c>
       <c r="L27">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M27">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1871,21 +1892,45 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.2064343163538874</v>
+      </c>
+      <c r="C28">
+        <v>77</v>
+      </c>
+      <c r="D28">
+        <v>77</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>296</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K28">
-        <v>0.7191011235955056</v>
+        <v>0.7538461538461538</v>
       </c>
       <c r="L28">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="M28">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1897,21 +1942,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K29">
-        <v>0.675</v>
+        <v>0.7491525423728813</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1923,21 +1968,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K30">
-        <v>0.6571428571428571</v>
+        <v>0.7322175732217573</v>
       </c>
       <c r="L30">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="M30">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1949,21 +1994,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K31">
-        <v>0.5641025641025641</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L31">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M31">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1975,7 +2020,163 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>34</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L32">
+        <v>30</v>
+      </c>
+      <c r="M32">
+        <v>30</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K33">
+        <v>0.6571428571428571</v>
+      </c>
+      <c r="L33">
+        <v>46</v>
+      </c>
+      <c r="M33">
+        <v>46</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34">
+        <v>0.5616438356164384</v>
+      </c>
+      <c r="L34">
+        <v>41</v>
+      </c>
+      <c r="M34">
+        <v>41</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K35">
+        <v>0.5</v>
+      </c>
+      <c r="L35">
+        <v>32</v>
+      </c>
+      <c r="M35">
+        <v>32</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K36">
+        <v>0.5</v>
+      </c>
+      <c r="L36">
+        <v>39</v>
+      </c>
+      <c r="M36">
+        <v>39</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K37">
+        <v>0.4576271186440678</v>
+      </c>
+      <c r="L37">
+        <v>27</v>
+      </c>
+      <c r="M37">
+        <v>27</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
